--- a/apps/cmdb/model_migrate/model_config.xlsx
+++ b/apps/cmdb/model_migrate/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11800" tabRatio="896" firstSheet="3" activeTab="9"/>
+    <workbookView windowHeight="15520" tabRatio="896" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="classifications" sheetId="97" r:id="rId1"/>
@@ -18,6 +18,30 @@
     <sheet name="asso-k8s_node" sheetId="66" r:id="rId9"/>
     <sheet name="attr-k8s_pod" sheetId="43" r:id="rId10"/>
     <sheet name="asso-k8s_pod" sheetId="110" r:id="rId11"/>
+    <sheet name="attr-vmware_vc" sheetId="111" r:id="rId12"/>
+    <sheet name="attr-vmware_vm" sheetId="112" r:id="rId13"/>
+    <sheet name="asso-vmware_vm" sheetId="113" r:id="rId14"/>
+    <sheet name="attr-vmware_esxi" sheetId="114" r:id="rId15"/>
+    <sheet name="asso-vmware_esxi" sheetId="115" r:id="rId16"/>
+    <sheet name="attr-vmware_ds" sheetId="116" r:id="rId17"/>
+    <sheet name="asso-vmware_ds" sheetId="117" r:id="rId18"/>
+    <sheet name="attr-aliyun_account" sheetId="118" r:id="rId19"/>
+    <sheet name="attr-aliyun_ecs" sheetId="119" r:id="rId20"/>
+    <sheet name="asso-aliyun_ecs" sheetId="120" r:id="rId21"/>
+    <sheet name="attr-aliyun_bucket" sheetId="121" r:id="rId22"/>
+    <sheet name="asso-aliyun_bucket" sheetId="122" r:id="rId23"/>
+    <sheet name="attr-aliyun_mysql" sheetId="123" r:id="rId24"/>
+    <sheet name="asso-aliyun_mysql" sheetId="124" r:id="rId25"/>
+    <sheet name="attr-aliyun_pgsql" sheetId="125" r:id="rId26"/>
+    <sheet name="asso-aliyun_pgsql" sheetId="126" r:id="rId27"/>
+    <sheet name="attr-aliyun_mongodb" sheetId="127" r:id="rId28"/>
+    <sheet name="asso-aliyun_mongodb" sheetId="128" r:id="rId29"/>
+    <sheet name="attr-aliyun_redis" sheetId="129" r:id="rId30"/>
+    <sheet name="asso-aliyun_redis" sheetId="130" r:id="rId31"/>
+    <sheet name="attr-aliyun_clb" sheetId="131" r:id="rId32"/>
+    <sheet name="asso-aliyun_clb" sheetId="132" r:id="rId33"/>
+    <sheet name="attr-aliyun_kafka_inst" sheetId="133" r:id="rId34"/>
+    <sheet name="asso-aliyun_kafka_inst" sheetId="134" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="292">
   <si>
     <t>模型分类ID</t>
   </si>
@@ -54,6 +78,18 @@
     <t>K8S</t>
   </si>
   <si>
+    <t>vmware</t>
+  </si>
+  <si>
+    <t>VMware</t>
+  </si>
+  <si>
+    <t>aliyun</t>
+  </si>
+  <si>
+    <t>阿里云</t>
+  </si>
+  <si>
     <t>模型ID</t>
   </si>
   <si>
@@ -117,6 +153,114 @@
     <t>cc-pod_Pod</t>
   </si>
   <si>
+    <t>vmware_vc</t>
+  </si>
+  <si>
+    <t>vCenter</t>
+  </si>
+  <si>
+    <t>cc-cloud-plat_云平台</t>
+  </si>
+  <si>
+    <t>vmware_vm</t>
+  </si>
+  <si>
+    <t>VMware VM</t>
+  </si>
+  <si>
+    <t>cc-cloud-server_云服务器</t>
+  </si>
+  <si>
+    <t>vmware_esxi</t>
+  </si>
+  <si>
+    <t>ESXi</t>
+  </si>
+  <si>
+    <t>cc-esxi-host_ESXi</t>
+  </si>
+  <si>
+    <t>vmware_ds</t>
+  </si>
+  <si>
+    <t>Data Storage</t>
+  </si>
+  <si>
+    <t>cc-storage_存储</t>
+  </si>
+  <si>
+    <t>aliyun_account</t>
+  </si>
+  <si>
+    <t>aliyun_ecs</t>
+  </si>
+  <si>
+    <t>阿里云ECS</t>
+  </si>
+  <si>
+    <t>aliyun_bucket</t>
+  </si>
+  <si>
+    <t>阿里云对象存储Bucket</t>
+  </si>
+  <si>
+    <t>cc-cloud-sp_云存储</t>
+  </si>
+  <si>
+    <t>aliyun_mysql</t>
+  </si>
+  <si>
+    <t>阿里云MySQL</t>
+  </si>
+  <si>
+    <t>cc-mysql_MySQL</t>
+  </si>
+  <si>
+    <t>aliyun_pgsql</t>
+  </si>
+  <si>
+    <t>阿里云PgSQL</t>
+  </si>
+  <si>
+    <t>cc-postgresql_PostgreSQL</t>
+  </si>
+  <si>
+    <t>aliyun_redis</t>
+  </si>
+  <si>
+    <t>阿里云Redis</t>
+  </si>
+  <si>
+    <t>cc-redis_REDIS</t>
+  </si>
+  <si>
+    <t>aliyun_mongodb</t>
+  </si>
+  <si>
+    <t>阿里云MongoDB</t>
+  </si>
+  <si>
+    <t>cc-mongodb_MongoDB</t>
+  </si>
+  <si>
+    <t>aliyun_kafka_inst</t>
+  </si>
+  <si>
+    <t>阿里云Kafka实例</t>
+  </si>
+  <si>
+    <t>cc-kafka_Kafka</t>
+  </si>
+  <si>
+    <t>aliyun_clb</t>
+  </si>
+  <si>
+    <t>阿里云负载均衡CLB</t>
+  </si>
+  <si>
+    <t>cc-cloud-elb_云负载均衡</t>
+  </si>
+  <si>
     <t>英文名</t>
   </si>
   <si>
@@ -442,6 +586,357 @@
   </si>
   <si>
     <t>run</t>
+  </si>
+  <si>
+    <t>vc_version</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>resource_id</t>
+  </si>
+  <si>
+    <t>资源ID</t>
+  </si>
+  <si>
+    <t>os_name</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <t>vcpus</t>
+  </si>
+  <si>
+    <t>vCPU数</t>
+  </si>
+  <si>
+    <t>内存容量(MB)</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>cpu_model</t>
+  </si>
+  <si>
+    <t>CPU型号</t>
+  </si>
+  <si>
+    <t>cpu_cores</t>
+  </si>
+  <si>
+    <t>CPU核数</t>
+  </si>
+  <si>
+    <t>esxi_version</t>
+  </si>
+  <si>
+    <t>ESXi版本</t>
+  </si>
+  <si>
+    <t>system_type</t>
+  </si>
+  <si>
+    <t>文件系统类型</t>
+  </si>
+  <si>
+    <t>总容量(GB)</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>resource_name</t>
+  </si>
+  <si>
+    <t>资源名</t>
+  </si>
+  <si>
+    <t>内网IP</t>
+  </si>
+  <si>
+    <t>public_ip</t>
+  </si>
+  <si>
+    <t>公网IP</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>地域</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>可用区</t>
+  </si>
+  <si>
+    <t>vpc</t>
+  </si>
+  <si>
+    <t>VPC</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>instance_type</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>操作系统名称</t>
+  </si>
+  <si>
+    <t>memory_mb</t>
+  </si>
+  <si>
+    <t>charge_type</t>
+  </si>
+  <si>
+    <t>付费类型</t>
+  </si>
+  <si>
+    <t>expired_time</t>
+  </si>
+  <si>
+    <t>到期时间</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>所属数据中心</t>
+  </si>
+  <si>
+    <t>extranet_endpoint</t>
+  </si>
+  <si>
+    <t>外网域名</t>
+  </si>
+  <si>
+    <t>intranet_endpoint</t>
+  </si>
+  <si>
+    <t>内网域名</t>
+  </si>
+  <si>
+    <t>storage_class</t>
+  </si>
+  <si>
+    <t>存储类型</t>
+  </si>
+  <si>
+    <t>cross_region_replication</t>
+  </si>
+  <si>
+    <t>跨区域复制状态</t>
+  </si>
+  <si>
+    <t>block_public_access</t>
+  </si>
+  <si>
+    <t>开启公共访问</t>
+  </si>
+  <si>
+    <t>creation_date</t>
+  </si>
+  <si>
+    <t>所属地域</t>
+  </si>
+  <si>
+    <t>主节点可用区</t>
+  </si>
+  <si>
+    <t>zone_slave</t>
+  </si>
+  <si>
+    <t>从节点可用区</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>数据库类型</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>数据库版本</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>实例类型</t>
+  </si>
+  <si>
+    <t>运行状态</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>实例规格</t>
+  </si>
+  <si>
+    <t>storage_type</t>
+  </si>
+  <si>
+    <t>储存类型</t>
+  </si>
+  <si>
+    <t>network_type</t>
+  </si>
+  <si>
+    <t>网络类型</t>
+  </si>
+  <si>
+    <t>net_type</t>
+  </si>
+  <si>
+    <t>网络连接类型</t>
+  </si>
+  <si>
+    <t>connection_mode</t>
+  </si>
+  <si>
+    <t>访问模式</t>
+  </si>
+  <si>
+    <t>lock_mode</t>
+  </si>
+  <si>
+    <t>锁定状态</t>
+  </si>
+  <si>
+    <t>CPU 数量</t>
+  </si>
+  <si>
+    <t>内存大小(M)</t>
+  </si>
+  <si>
+    <t>storage_gb</t>
+  </si>
+  <si>
+    <t>存储空间(GB)</t>
+  </si>
+  <si>
+    <t>engine_version</t>
+  </si>
+  <si>
+    <t>引擎版本</t>
+  </si>
+  <si>
+    <t>architecture_type</t>
+  </si>
+  <si>
+    <t>架构类型</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>实例容量</t>
+  </si>
+  <si>
+    <t>connection_domain</t>
+  </si>
+  <si>
+    <t>内网连接地址</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>服务端口</t>
+  </si>
+  <si>
+    <t>bandwidth</t>
+  </si>
+  <si>
+    <t>实例带宽(MB/s)</t>
+  </si>
+  <si>
+    <t>shard_count</t>
+  </si>
+  <si>
+    <t>集群节点数</t>
+  </si>
+  <si>
+    <t>qps</t>
+  </si>
+  <si>
+    <t>参考QPS</t>
+  </si>
+  <si>
+    <t>instance_class</t>
+  </si>
+  <si>
+    <t>package_type</t>
+  </si>
+  <si>
+    <t>套餐类型</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>主可用区</t>
+  </si>
+  <si>
+    <t>备可用区</t>
+  </si>
+  <si>
+    <t>实例状态</t>
+  </si>
+  <si>
+    <t>磁盘容量(GB)</t>
+  </si>
+  <si>
+    <t>磁盘类型</t>
+  </si>
+  <si>
+    <t>msg_retain</t>
+  </si>
+  <si>
+    <t>消息保留时长(h)</t>
+  </si>
+  <si>
+    <t>topoc_num</t>
+  </si>
+  <si>
+    <t>Topic最大数量</t>
+  </si>
+  <si>
+    <t>io_max_read</t>
+  </si>
+  <si>
+    <t>读流量峰值(MB/s)</t>
+  </si>
+  <si>
+    <t>io_max_write</t>
+  </si>
+  <si>
+    <t>写流量峰值(MB/s)</t>
   </si>
 </sst>
 </file>
@@ -1497,13 +1992,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="36.2596153846154" customWidth="1"/>
     <col min="2" max="2" width="50.625" customWidth="1"/>
@@ -1534,8 +2029,23 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1548,8 +2058,8 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1566,69 +2076,69 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
@@ -1642,17 +2152,17 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -1661,22 +2171,22 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -1690,17 +2200,17 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -1714,17 +2224,17 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -1738,17 +2248,17 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -1762,17 +2272,17 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F9" s="1" t="b">
         <v>0</v>
@@ -1786,17 +2296,17 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>0</v>
@@ -1810,17 +2320,17 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>0</v>
@@ -1834,17 +2344,17 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1" t="b">
         <v>0</v>
@@ -1858,16 +2368,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F13" s="1" t="b">
         <v>0</v>
@@ -1881,16 +2391,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F14" s="1" t="b">
         <v>0</v>
@@ -1904,16 +2414,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F15" s="1" t="b">
         <v>0</v>
@@ -1950,73 +2460,1587 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="24.3557692307692" customWidth="1"/>
+    <col min="2" max="2" width="25.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="20.0288461538462" customWidth="1"/>
+    <col min="4" max="4" width="20.0192307692308" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.1442307692308" customWidth="1"/>
+    <col min="2" max="2" width="17.2980769230769" customWidth="1"/>
+    <col min="3" max="3" width="16.8173076923077" customWidth="1"/>
+    <col min="4" max="4" width="14.0961538461538" customWidth="1"/>
+    <col min="5" max="5" width="15.2211538461538" customWidth="1"/>
+    <col min="6" max="6" width="14.0961538461538" customWidth="1"/>
+    <col min="7" max="7" width="11.6923076923077" customWidth="1"/>
+    <col min="8" max="8" width="11.2115384615385" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="24.8365384615385" customWidth="1"/>
+    <col min="2" max="2" width="23.3846153846154" customWidth="1"/>
+    <col min="3" max="3" width="18.4230769230769" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>123</v>
       </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="26.1153846153846" customWidth="1"/>
+    <col min="2" max="2" width="23.3942307692308" customWidth="1"/>
+    <col min="4" max="4" width="19.2307692307692" customWidth="1"/>
+    <col min="5" max="5" width="20.1826923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16.0192307692308" customWidth="1"/>
+    <col min="2" max="2" width="17.4615384615385" customWidth="1"/>
+    <col min="3" max="3" width="18.1057692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="13.4519230769231" customWidth="1"/>
+    <col min="3" max="3" width="14.7403846153846" customWidth="1"/>
+    <col min="4" max="4" width="14.0961538461538" customWidth="1"/>
+    <col min="5" max="5" width="15.8557692307692" customWidth="1"/>
+    <col min="6" max="6" width="14.7403846153846" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="17.7884615384615" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2027,10 +4051,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2044,13 +4068,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -2059,13 +4083,13 @@
     </row>
     <row r="2" ht="17.6" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -2074,13 +4098,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
@@ -2089,13 +4113,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>4</v>
@@ -2104,13 +4128,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>4</v>
@@ -2119,13 +4143,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
@@ -2134,13 +4158,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
@@ -2148,136 +4172,3410 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="17.6" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" ht="17.6" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="17.6" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" ht="17.6" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="17.6" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="17.6" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="17.6" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" ht="17.6" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" ht="17.6" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" ht="17.6" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C7">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C11">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E10">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="16.0192307692308" customWidth="1"/>
+    <col min="3" max="3" width="14.5769230769231" customWidth="1"/>
+    <col min="4" max="4" width="13.7692307692308" customWidth="1"/>
+    <col min="5" max="5" width="17.2980769230769" customWidth="1"/>
+    <col min="6" max="6" width="15.0576923076923" customWidth="1"/>
+    <col min="7" max="7" width="19.3942307692308" customWidth="1"/>
+    <col min="8" max="8" width="14.7403846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.8269230769231" customWidth="1"/>
+    <col min="2" max="2" width="27.0769230769231" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="23.5576923076923" customWidth="1"/>
+    <col min="2" max="2" width="16.3365384615385" customWidth="1"/>
+    <col min="3" max="3" width="14.5769230769231" customWidth="1"/>
+    <col min="5" max="5" width="17.1346153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C7">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C11">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E10">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
-  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.7019230769231" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="12.1730769230769" customWidth="1"/>
+    <col min="2" max="2" width="13.7788461538462" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="13.4519230769231" customWidth="1"/>
+    <col min="5" max="5" width="18.2596153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="12.1730769230769" customWidth="1"/>
+    <col min="2" max="2" width="19.8653846153846" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="13.4519230769231" customWidth="1"/>
+    <col min="5" max="5" width="18.2596153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="12.1730769230769" customWidth="1"/>
+    <col min="2" max="2" width="19.8653846153846" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="13.4519230769231" customWidth="1"/>
+    <col min="5" max="5" width="18.2596153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2289,7 +7587,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2304,69 +7602,69 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
@@ -2380,17 +7678,17 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -2404,16 +7702,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -2427,16 +7725,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -2450,16 +7748,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -2473,16 +7771,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -2496,16 +7794,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="b">
         <v>0</v>
@@ -2519,16 +7817,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>0</v>
@@ -2542,16 +7840,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>0</v>
@@ -2565,16 +7863,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1" t="b">
         <v>0</v>
@@ -2612,6 +7910,1780 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="23.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="19.8653846153846" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="13.4519230769231" customWidth="1"/>
+    <col min="5" max="5" width="18.2596153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="23.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="19.8653846153846" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="13.4519230769231" customWidth="1"/>
+    <col min="5" max="5" width="18.2596153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="23.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="19.8653846153846" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="13.4519230769231" customWidth="1"/>
+    <col min="5" max="5" width="18.2596153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2642,69 +9714,69 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
@@ -2718,16 +9790,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -2741,16 +9813,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -2764,16 +9836,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -2787,16 +9859,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -2810,16 +9882,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -2833,16 +9905,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F9" s="1" t="b">
         <v>0</v>
@@ -2879,44 +9951,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2948,68 +10020,68 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
@@ -3023,16 +10095,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -3046,16 +10118,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -3069,16 +10141,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -3092,16 +10164,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -3115,19 +10187,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -3141,16 +10213,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F9" s="1" t="b">
         <v>0</v>
@@ -3164,16 +10236,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>0</v>
@@ -3187,16 +10259,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>0</v>
@@ -3210,16 +10282,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F12" s="1" t="b">
         <v>0</v>
@@ -3233,16 +10305,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F13" s="1" t="b">
         <v>0</v>
@@ -3279,44 +10351,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3348,69 +10420,69 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
@@ -3424,17 +10496,17 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -3448,17 +10520,17 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -3472,16 +10544,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -3495,17 +10567,17 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -3519,17 +10591,17 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -3543,17 +10615,17 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F9" s="1" t="b">
         <v>0</v>
@@ -3567,17 +10639,17 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>0</v>
@@ -3591,17 +10663,17 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>0</v>
@@ -3615,17 +10687,17 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1" t="b">
         <v>0</v>
@@ -3639,17 +10711,17 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F13" s="1" t="b">
         <v>0</v>
@@ -3663,17 +10735,17 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F14" s="1" t="b">
         <v>0</v>
@@ -3687,17 +10759,17 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1" t="b">
         <v>0</v>
@@ -3711,16 +10783,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F16" s="1" t="b">
         <v>0</v>
@@ -3734,16 +10806,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F17" s="1" t="b">
         <v>0</v>
@@ -3757,16 +10829,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F18" s="1" t="b">
         <v>0</v>
@@ -3803,44 +10875,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
